--- a/service/dayforecast.xlsx
+++ b/service/dayforecast.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>11/03/2023</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>55.9</v>
+        <v>124.8</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>79.3</v>
+        <v>171.6</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>91</v>
+        <v>187.2</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100.1</v>
+        <v>156</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>72.8</v>
+        <v>118.3</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>55.9</v>
+        <v>123.5</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>58.5</v>
+        <v>126.1</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>58.5</v>
+        <v>131.3</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>52</v>
+        <v>128.7</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.3</v>
+        <v>89.7</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.3</v>
+        <v>42.9</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>96.2</v>
+        <v>145.6</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>80.59999999999999</v>
+        <v>189.8</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>93.59999999999999</v>
+        <v>189.8</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>98.8</v>
+        <v>175.5</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>63.7</v>
+        <v>115.7</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>96.2</v>
+        <v>161.2</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>62.4</v>
+        <v>132.6</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62.4</v>
+        <v>171.6</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>57.2</v>
+        <v>149.5</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>57.2</v>
+        <v>179.4</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>37.7</v>
+        <v>140.4</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.1</v>
+        <v>107.9</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F35" t="n">
         <v>9</v>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F37" t="n">
         <v>11</v>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F38" t="n">
         <v>12</v>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F39" t="n">
         <v>13</v>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="F40" t="n">
         <v>14</v>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F42" t="n">
         <v>16</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F43" t="n">
         <v>17</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F45" t="n">
         <v>19</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F46" t="n">
         <v>20</v>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F47" t="n">
         <v>21</v>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
         <v>22</v>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>23</v>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F52" t="n">
         <v>10</v>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F54" t="n">
         <v>12</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F55" t="n">
         <v>13</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F56" t="n">
         <v>14</v>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F57" t="n">
         <v>15</v>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F58" t="n">
         <v>16</v>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F59" t="n">
         <v>17</v>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F60" t="n">
         <v>18</v>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F61" t="n">
         <v>19</v>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F62" t="n">
         <v>20</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F64" t="n">
         <v>22</v>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F65" t="n">
         <v>23</v>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="F69" t="n">
         <v>11</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="F70" t="n">
         <v>12</v>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="F71" t="n">
         <v>13</v>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="F72" t="n">
         <v>14</v>
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="F74" t="n">
         <v>16</v>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="F75" t="n">
         <v>17</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="F76" t="n">
         <v>18</v>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F77" t="n">
         <v>19</v>
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F78" t="n">
         <v>20</v>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F80" t="n">
         <v>22</v>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>23</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F82" t="n">
         <v>8</v>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F84" t="n">
         <v>10</v>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F85" t="n">
         <v>11</v>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F87" t="n">
         <v>13</v>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F88" t="n">
         <v>14</v>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F90" t="n">
         <v>16</v>
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F91" t="n">
         <v>17</v>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F92" t="n">
         <v>18</v>
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F93" t="n">
         <v>19</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F94" t="n">
         <v>20</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F95" t="n">
         <v>21</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>22</v>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F97" t="n">
         <v>23</v>
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F98" t="n">
         <v>8</v>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F100" t="n">
         <v>10</v>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F101" t="n">
         <v>11</v>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F102" t="n">
         <v>12</v>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F103" t="n">
         <v>13</v>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F104" t="n">
         <v>14</v>
@@ -3158,7 +3158,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F105" t="n">
         <v>15</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F106" t="n">
         <v>16</v>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F107" t="n">
         <v>17</v>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F108" t="n">
         <v>18</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F109" t="n">
         <v>19</v>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F110" t="n">
         <v>20</v>
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F111" t="n">
         <v>21</v>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
         <v>22</v>
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>3</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
         <v>5</v>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F120" t="n">
         <v>6</v>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F121" t="n">
         <v>7</v>
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
         <v>9</v>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
         <v>11</v>
@@ -3704,7 +3704,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
         <v>12</v>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
         <v>13</v>
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>18</v>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
         <v>19</v>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F142" t="n">
         <v>12</v>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
         <v>13</v>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
         <v>15</v>
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
         <v>16</v>
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
         <v>17</v>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
         <v>18</v>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
         <v>19</v>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F155" t="n">
         <v>9</v>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F157" t="n">
         <v>11</v>
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F158" t="n">
         <v>12</v>
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F159" t="n">
         <v>13</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F160" t="n">
         <v>14</v>
@@ -4614,7 +4614,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F161" t="n">
         <v>15</v>
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F162" t="n">
         <v>16</v>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F163" t="n">
         <v>17</v>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F164" t="n">
         <v>18</v>
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F165" t="n">
         <v>19</v>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F166" t="n">
         <v>20</v>
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F170" t="n">
         <v>8</v>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F171" t="n">
         <v>9</v>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F172" t="n">
         <v>10</v>
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F173" t="n">
         <v>11</v>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F175" t="n">
         <v>13</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F176" t="n">
         <v>14</v>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F177" t="n">
         <v>15</v>
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F178" t="n">
         <v>16</v>
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F179" t="n">
         <v>17</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F180" t="n">
         <v>18</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F181" t="n">
         <v>19</v>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F182" t="n">
         <v>20</v>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F186" t="n">
         <v>8</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F187" t="n">
         <v>9</v>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F188" t="n">
         <v>10</v>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F189" t="n">
         <v>11</v>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F190" t="n">
         <v>12</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F191" t="n">
         <v>13</v>
@@ -5420,7 +5420,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F192" t="n">
         <v>14</v>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F193" t="n">
         <v>15</v>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F194" t="n">
         <v>16</v>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="F195" t="n">
         <v>17</v>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F196" t="n">
         <v>18</v>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F197" t="n">
         <v>19</v>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F198" t="n">
         <v>20</v>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F199" t="n">
         <v>21</v>
@@ -5628,7 +5628,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
         <v>22</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F202" t="n">
         <v>8</v>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F203" t="n">
         <v>9</v>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F204" t="n">
         <v>10</v>
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F205" t="n">
         <v>11</v>
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F206" t="n">
         <v>12</v>
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F207" t="n">
         <v>13</v>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F208" t="n">
         <v>14</v>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F209" t="n">
         <v>15</v>
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F210" t="n">
         <v>16</v>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F211" t="n">
         <v>17</v>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F212" t="n">
         <v>18</v>
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F213" t="n">
         <v>19</v>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F214" t="n">
         <v>20</v>
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
         <v>21</v>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F218" t="n">
         <v>8</v>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F219" t="n">
         <v>9</v>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="F220" t="n">
         <v>10</v>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="F221" t="n">
         <v>11</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="F222" t="n">
         <v>12</v>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F223" t="n">
         <v>13</v>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F224" t="n">
         <v>14</v>
@@ -6278,7 +6278,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F225" t="n">
         <v>15</v>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F226" t="n">
         <v>16</v>
@@ -6330,7 +6330,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="F227" t="n">
         <v>17</v>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="F228" t="n">
         <v>18</v>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F229" t="n">
         <v>19</v>
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F234" t="n">
         <v>8</v>
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F235" t="n">
         <v>9</v>
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F236" t="n">
         <v>10</v>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F238" t="n">
         <v>12</v>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F239" t="n">
         <v>13</v>
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F241" t="n">
         <v>15</v>
@@ -6720,7 +6720,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F242" t="n">
         <v>16</v>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F243" t="n">
         <v>17</v>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F244" t="n">
         <v>18</v>
@@ -6798,7 +6798,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F245" t="n">
         <v>19</v>
@@ -6954,7 +6954,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F251" t="n">
         <v>9</v>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F252" t="n">
         <v>10</v>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F253" t="n">
         <v>11</v>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F254" t="n">
         <v>12</v>
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F255" t="n">
         <v>13</v>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F256" t="n">
         <v>14</v>
@@ -7110,7 +7110,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F257" t="n">
         <v>15</v>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F258" t="n">
         <v>16</v>
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F259" t="n">
         <v>17</v>
@@ -7188,7 +7188,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F260" t="n">
         <v>18</v>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F261" t="n">
         <v>19</v>
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F262" t="n">
         <v>20</v>
@@ -7370,7 +7370,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F267" t="n">
         <v>9</v>
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F268" t="n">
         <v>10</v>
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F269" t="n">
         <v>11</v>
@@ -7448,7 +7448,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F270" t="n">
         <v>12</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F274" t="n">
         <v>16</v>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F275" t="n">
         <v>17</v>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F276" t="n">
         <v>18</v>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F277" t="n">
         <v>19</v>
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" t="n">
         <v>20</v>
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F282" t="n">
         <v>8</v>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F283" t="n">
         <v>9</v>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F284" t="n">
         <v>10</v>
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F285" t="n">
         <v>11</v>
@@ -7864,7 +7864,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F286" t="n">
         <v>12</v>
@@ -7890,7 +7890,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F287" t="n">
         <v>13</v>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F288" t="n">
         <v>14</v>
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F289" t="n">
         <v>15</v>
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F290" t="n">
         <v>16</v>
@@ -7994,7 +7994,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F291" t="n">
         <v>17</v>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F292" t="n">
         <v>18</v>
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F293" t="n">
         <v>19</v>
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F294" t="n">
         <v>20</v>
@@ -8098,7 +8098,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F295" t="n">
         <v>21</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F296" t="n">
         <v>22</v>
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F299" t="n">
         <v>9</v>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F300" t="n">
         <v>10</v>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F301" t="n">
         <v>11</v>
@@ -8280,7 +8280,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F302" t="n">
         <v>12</v>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F303" t="n">
         <v>13</v>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F304" t="n">
         <v>14</v>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F305" t="n">
         <v>15</v>
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F306" t="n">
         <v>16</v>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F307" t="n">
         <v>17</v>
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F308" t="n">
         <v>18</v>

--- a/service/dayforecast.xlsx
+++ b/service/dayforecast.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>18/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>124.8</v>
+        <v>63.7</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>171.6</v>
+        <v>89.7</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>187.2</v>
+        <v>102.7</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>156</v>
+        <v>111.8</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>118.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>123.5</v>
+        <v>63.7</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>126.1</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>130</v>
+        <v>57.2</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>131.3</v>
+        <v>66.3</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>128.7</v>
+        <v>58.5</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>89.7</v>
+        <v>31.2</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>42.9</v>
+        <v>15.6</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>145.6</v>
+        <v>119.6</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>189.8</v>
+        <v>101.4</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>189.8</v>
+        <v>117</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>175.5</v>
+        <v>123.5</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>115.7</v>
+        <v>79.3</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>161.2</v>
+        <v>120.9</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>132.6</v>
+        <v>78</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>171.6</v>
+        <v>78</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>149.5</v>
+        <v>72.8</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>179.4</v>
+        <v>71.5</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>140.4</v>
+        <v>46.8</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>107.9</v>
+        <v>27.3</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F35" t="n">
         <v>9</v>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F37" t="n">
         <v>11</v>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F38" t="n">
         <v>12</v>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F39" t="n">
         <v>13</v>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="F40" t="n">
         <v>14</v>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F42" t="n">
         <v>16</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F43" t="n">
         <v>17</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F45" t="n">
         <v>19</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F46" t="n">
         <v>20</v>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F47" t="n">
         <v>21</v>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
         <v>22</v>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>23</v>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F52" t="n">
         <v>10</v>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F54" t="n">
         <v>12</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F55" t="n">
         <v>13</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F56" t="n">
         <v>14</v>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F57" t="n">
         <v>15</v>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F58" t="n">
         <v>16</v>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F59" t="n">
         <v>17</v>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F60" t="n">
         <v>18</v>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F61" t="n">
         <v>19</v>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F62" t="n">
         <v>20</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
         <v>22</v>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>23</v>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="F69" t="n">
         <v>11</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="F70" t="n">
         <v>12</v>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="F71" t="n">
         <v>13</v>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="F72" t="n">
         <v>14</v>
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="F74" t="n">
         <v>16</v>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="F75" t="n">
         <v>17</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="F76" t="n">
         <v>18</v>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="F77" t="n">
         <v>19</v>
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F78" t="n">
         <v>20</v>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>22</v>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
         <v>23</v>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F84" t="n">
         <v>10</v>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F85" t="n">
         <v>11</v>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F87" t="n">
         <v>13</v>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F88" t="n">
         <v>14</v>
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F89" t="n">
         <v>15</v>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" t="n">
         <v>16</v>
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F91" t="n">
         <v>17</v>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F92" t="n">
         <v>18</v>
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F93" t="n">
         <v>19</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F94" t="n">
         <v>20</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
         <v>21</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F96" t="n">
         <v>22</v>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F97" t="n">
         <v>23</v>
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F98" t="n">
         <v>8</v>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F100" t="n">
         <v>10</v>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F101" t="n">
         <v>11</v>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F102" t="n">
         <v>12</v>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F103" t="n">
         <v>13</v>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F104" t="n">
         <v>14</v>
@@ -3158,7 +3158,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F105" t="n">
         <v>15</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F106" t="n">
         <v>16</v>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F107" t="n">
         <v>17</v>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F108" t="n">
         <v>18</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F109" t="n">
         <v>19</v>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F110" t="n">
         <v>20</v>
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F111" t="n">
         <v>21</v>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
         <v>22</v>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
         <v>3</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
         <v>5</v>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F120" t="n">
         <v>6</v>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F121" t="n">
         <v>7</v>
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
         <v>9</v>
@@ -3704,7 +3704,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>12</v>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>13</v>
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>18</v>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>19</v>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
         <v>10</v>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F141" t="n">
         <v>11</v>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
         <v>12</v>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
         <v>13</v>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>15</v>
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>16</v>
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>17</v>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
         <v>18</v>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>19</v>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F155" t="n">
         <v>9</v>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F157" t="n">
         <v>11</v>
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F158" t="n">
         <v>12</v>
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F159" t="n">
         <v>13</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F160" t="n">
         <v>14</v>
@@ -4614,7 +4614,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F161" t="n">
         <v>15</v>
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F162" t="n">
         <v>16</v>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F163" t="n">
         <v>17</v>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F164" t="n">
         <v>18</v>
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F165" t="n">
         <v>19</v>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
         <v>20</v>
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F170" t="n">
         <v>8</v>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F171" t="n">
         <v>9</v>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F172" t="n">
         <v>10</v>
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F173" t="n">
         <v>11</v>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F175" t="n">
         <v>13</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F176" t="n">
         <v>14</v>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
         <v>15</v>
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F178" t="n">
         <v>16</v>
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F179" t="n">
         <v>17</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F180" t="n">
         <v>18</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
         <v>19</v>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F182" t="n">
         <v>20</v>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F186" t="n">
         <v>8</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F187" t="n">
         <v>9</v>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F188" t="n">
         <v>10</v>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F189" t="n">
         <v>11</v>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F190" t="n">
         <v>12</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F191" t="n">
         <v>13</v>
@@ -5420,7 +5420,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F192" t="n">
         <v>14</v>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F193" t="n">
         <v>15</v>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F194" t="n">
         <v>16</v>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F195" t="n">
         <v>17</v>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F196" t="n">
         <v>18</v>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F197" t="n">
         <v>19</v>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F198" t="n">
         <v>20</v>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
         <v>21</v>
@@ -5628,7 +5628,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
         <v>22</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F202" t="n">
         <v>8</v>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F203" t="n">
         <v>9</v>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F204" t="n">
         <v>10</v>
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F205" t="n">
         <v>11</v>
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F206" t="n">
         <v>12</v>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F208" t="n">
         <v>14</v>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F209" t="n">
         <v>15</v>
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F210" t="n">
         <v>16</v>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F212" t="n">
         <v>18</v>
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F213" t="n">
         <v>19</v>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F214" t="n">
         <v>20</v>
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="n">
         <v>21</v>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F218" t="n">
         <v>8</v>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="F219" t="n">
         <v>9</v>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="F220" t="n">
         <v>10</v>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F221" t="n">
         <v>11</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="F222" t="n">
         <v>12</v>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F223" t="n">
         <v>13</v>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="F224" t="n">
         <v>14</v>
@@ -6278,7 +6278,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F225" t="n">
         <v>15</v>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F226" t="n">
         <v>16</v>
@@ -6330,7 +6330,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F227" t="n">
         <v>17</v>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="F228" t="n">
         <v>18</v>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="F229" t="n">
         <v>19</v>
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F234" t="n">
         <v>8</v>
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F235" t="n">
         <v>9</v>
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F236" t="n">
         <v>10</v>
@@ -6590,7 +6590,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F237" t="n">
         <v>11</v>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F238" t="n">
         <v>12</v>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F239" t="n">
         <v>13</v>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F240" t="n">
         <v>14</v>
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F241" t="n">
         <v>15</v>
@@ -6720,7 +6720,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F242" t="n">
         <v>16</v>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F243" t="n">
         <v>17</v>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F244" t="n">
         <v>18</v>
@@ -6798,7 +6798,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F245" t="n">
         <v>19</v>
@@ -6954,7 +6954,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F251" t="n">
         <v>9</v>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F252" t="n">
         <v>10</v>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F253" t="n">
         <v>11</v>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F254" t="n">
         <v>12</v>
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F255" t="n">
         <v>13</v>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F256" t="n">
         <v>14</v>
@@ -7110,7 +7110,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F257" t="n">
         <v>15</v>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F258" t="n">
         <v>16</v>
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F259" t="n">
         <v>17</v>
@@ -7188,7 +7188,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F260" t="n">
         <v>18</v>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F261" t="n">
         <v>19</v>
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F262" t="n">
         <v>20</v>
@@ -7370,7 +7370,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F267" t="n">
         <v>9</v>
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F268" t="n">
         <v>10</v>
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F269" t="n">
         <v>11</v>
@@ -7448,7 +7448,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F270" t="n">
         <v>12</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F274" t="n">
         <v>16</v>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F275" t="n">
         <v>17</v>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F276" t="n">
         <v>18</v>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F277" t="n">
         <v>19</v>
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278" t="n">
         <v>20</v>
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F282" t="n">
         <v>8</v>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F283" t="n">
         <v>9</v>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F284" t="n">
         <v>10</v>
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F285" t="n">
         <v>11</v>
@@ -7864,7 +7864,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F286" t="n">
         <v>12</v>
@@ -7890,7 +7890,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F287" t="n">
         <v>13</v>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F288" t="n">
         <v>14</v>
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F289" t="n">
         <v>15</v>
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F290" t="n">
         <v>16</v>
@@ -7994,7 +7994,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F291" t="n">
         <v>17</v>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F292" t="n">
         <v>18</v>
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F293" t="n">
         <v>19</v>
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F294" t="n">
         <v>20</v>
@@ -8098,7 +8098,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F295" t="n">
         <v>21</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F296" t="n">
         <v>22</v>
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F299" t="n">
         <v>9</v>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F300" t="n">
         <v>10</v>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F301" t="n">
         <v>11</v>
@@ -8280,7 +8280,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F302" t="n">
         <v>12</v>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F303" t="n">
         <v>13</v>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F304" t="n">
         <v>14</v>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F305" t="n">
         <v>15</v>
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F306" t="n">
         <v>16</v>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F307" t="n">
         <v>17</v>
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F308" t="n">
         <v>18</v>

--- a/service/dayforecast.xlsx
+++ b/service/dayforecast.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>63.7</v>
+        <v>144.3</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>89.7</v>
+        <v>197.6</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102.7</v>
+        <v>215.8</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>111.8</v>
+        <v>180.7</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>81.90000000000001</v>
+        <v>136.5</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>63.7</v>
+        <v>143</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>145.6</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>57.2</v>
+        <v>150.8</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>66.3</v>
+        <v>152.1</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>58.5</v>
+        <v>148.2</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.2</v>
+        <v>102.7</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.6</v>
+        <v>49.4</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>119.6</v>
+        <v>158.6</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>101.4</v>
+        <v>206.7</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>117</v>
+        <v>206.7</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>123.5</v>
+        <v>191.1</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>79.3</v>
+        <v>126.1</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>120.9</v>
+        <v>175.5</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>78</v>
+        <v>144.3</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>78</v>
+        <v>187.2</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>72.8</v>
+        <v>163.8</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>71.5</v>
+        <v>195</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>46.8</v>
+        <v>153.4</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.3</v>
+        <v>117</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F35" t="n">
         <v>9</v>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F37" t="n">
         <v>11</v>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F38" t="n">
         <v>12</v>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F39" t="n">
         <v>13</v>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F40" t="n">
         <v>14</v>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F42" t="n">
         <v>16</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="F43" t="n">
         <v>17</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F45" t="n">
         <v>19</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F46" t="n">
         <v>20</v>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F47" t="n">
         <v>21</v>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
         <v>22</v>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
         <v>23</v>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F52" t="n">
         <v>10</v>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F54" t="n">
         <v>12</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F55" t="n">
         <v>13</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F56" t="n">
         <v>14</v>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F57" t="n">
         <v>15</v>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F58" t="n">
         <v>16</v>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F59" t="n">
         <v>17</v>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F60" t="n">
         <v>18</v>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F61" t="n">
         <v>19</v>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F62" t="n">
         <v>20</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F64" t="n">
         <v>22</v>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F65" t="n">
         <v>23</v>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="F69" t="n">
         <v>11</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="F70" t="n">
         <v>12</v>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="F71" t="n">
         <v>13</v>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="F72" t="n">
         <v>14</v>
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="F74" t="n">
         <v>16</v>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="F75" t="n">
         <v>17</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="F76" t="n">
         <v>18</v>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F77" t="n">
         <v>19</v>
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F78" t="n">
         <v>20</v>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F80" t="n">
         <v>22</v>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F84" t="n">
         <v>10</v>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F85" t="n">
         <v>11</v>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F87" t="n">
         <v>13</v>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F88" t="n">
         <v>14</v>
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F89" t="n">
         <v>15</v>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F90" t="n">
         <v>16</v>
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F91" t="n">
         <v>17</v>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F92" t="n">
         <v>18</v>
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F93" t="n">
         <v>19</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F94" t="n">
         <v>20</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F95" t="n">
         <v>21</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
         <v>22</v>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F97" t="n">
         <v>23</v>
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F98" t="n">
         <v>8</v>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F100" t="n">
         <v>10</v>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F101" t="n">
         <v>11</v>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F102" t="n">
         <v>12</v>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F103" t="n">
         <v>13</v>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F104" t="n">
         <v>14</v>
@@ -3158,7 +3158,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F105" t="n">
         <v>15</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F106" t="n">
         <v>16</v>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F107" t="n">
         <v>17</v>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F108" t="n">
         <v>18</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F109" t="n">
         <v>19</v>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F110" t="n">
         <v>20</v>
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F111" t="n">
         <v>21</v>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F112" t="n">
         <v>22</v>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
         <v>3</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F120" t="n">
         <v>6</v>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F121" t="n">
         <v>7</v>
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
         <v>9</v>
@@ -3704,7 +3704,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
         <v>12</v>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
         <v>13</v>
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>18</v>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
         <v>19</v>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
         <v>10</v>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
         <v>11</v>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F142" t="n">
         <v>12</v>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
         <v>13</v>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
         <v>15</v>
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
         <v>16</v>
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
         <v>17</v>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
         <v>18</v>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
         <v>19</v>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F155" t="n">
         <v>9</v>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F157" t="n">
         <v>11</v>
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F158" t="n">
         <v>12</v>
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F159" t="n">
         <v>13</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F160" t="n">
         <v>14</v>
@@ -4614,7 +4614,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F161" t="n">
         <v>15</v>
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F162" t="n">
         <v>16</v>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F163" t="n">
         <v>17</v>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F164" t="n">
         <v>18</v>
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F165" t="n">
         <v>19</v>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F166" t="n">
         <v>20</v>
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F170" t="n">
         <v>8</v>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F171" t="n">
         <v>9</v>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F172" t="n">
         <v>10</v>
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F173" t="n">
         <v>11</v>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F175" t="n">
         <v>13</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F176" t="n">
         <v>14</v>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F177" t="n">
         <v>15</v>
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F178" t="n">
         <v>16</v>
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F179" t="n">
         <v>17</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F180" t="n">
         <v>18</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F181" t="n">
         <v>19</v>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F182" t="n">
         <v>20</v>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F186" t="n">
         <v>8</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F187" t="n">
         <v>9</v>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F188" t="n">
         <v>10</v>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F189" t="n">
         <v>11</v>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F190" t="n">
         <v>12</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F191" t="n">
         <v>13</v>
@@ -5420,7 +5420,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F192" t="n">
         <v>14</v>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F193" t="n">
         <v>15</v>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F194" t="n">
         <v>16</v>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F195" t="n">
         <v>17</v>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F196" t="n">
         <v>18</v>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F197" t="n">
         <v>19</v>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F198" t="n">
         <v>20</v>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F199" t="n">
         <v>21</v>
@@ -5628,7 +5628,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
         <v>22</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F202" t="n">
         <v>8</v>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F203" t="n">
         <v>9</v>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F204" t="n">
         <v>10</v>
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F205" t="n">
         <v>11</v>
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F206" t="n">
         <v>12</v>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F208" t="n">
         <v>14</v>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F209" t="n">
         <v>15</v>
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F210" t="n">
         <v>16</v>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F212" t="n">
         <v>18</v>
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F213" t="n">
         <v>19</v>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F214" t="n">
         <v>20</v>
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
         <v>21</v>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F218" t="n">
         <v>8</v>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F219" t="n">
         <v>9</v>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="F220" t="n">
         <v>10</v>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F221" t="n">
         <v>11</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="F222" t="n">
         <v>12</v>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F223" t="n">
         <v>13</v>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F224" t="n">
         <v>14</v>
@@ -6278,7 +6278,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F225" t="n">
         <v>15</v>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F226" t="n">
         <v>16</v>
@@ -6330,7 +6330,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="F227" t="n">
         <v>17</v>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="F228" t="n">
         <v>18</v>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F229" t="n">
         <v>19</v>
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F234" t="n">
         <v>8</v>
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F235" t="n">
         <v>9</v>
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F236" t="n">
         <v>10</v>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F238" t="n">
         <v>12</v>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F239" t="n">
         <v>13</v>
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F241" t="n">
         <v>15</v>
@@ -6720,7 +6720,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F242" t="n">
         <v>16</v>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F243" t="n">
         <v>17</v>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F244" t="n">
         <v>18</v>
@@ -6798,7 +6798,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F245" t="n">
         <v>19</v>
@@ -6954,7 +6954,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F251" t="n">
         <v>9</v>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F252" t="n">
         <v>10</v>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F253" t="n">
         <v>11</v>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F254" t="n">
         <v>12</v>
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F255" t="n">
         <v>13</v>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F256" t="n">
         <v>14</v>
@@ -7110,7 +7110,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F257" t="n">
         <v>15</v>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F258" t="n">
         <v>16</v>
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F259" t="n">
         <v>17</v>
@@ -7188,7 +7188,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F260" t="n">
         <v>18</v>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F261" t="n">
         <v>19</v>
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F262" t="n">
         <v>20</v>
@@ -7370,7 +7370,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F267" t="n">
         <v>9</v>
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F268" t="n">
         <v>10</v>
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F269" t="n">
         <v>11</v>
@@ -7448,7 +7448,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F270" t="n">
         <v>12</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F274" t="n">
         <v>16</v>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F275" t="n">
         <v>17</v>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F276" t="n">
         <v>18</v>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F277" t="n">
         <v>19</v>
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" t="n">
         <v>20</v>
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F282" t="n">
         <v>8</v>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F283" t="n">
         <v>9</v>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F284" t="n">
         <v>10</v>
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F285" t="n">
         <v>11</v>
@@ -7864,7 +7864,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F286" t="n">
         <v>12</v>
@@ -7890,7 +7890,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F287" t="n">
         <v>13</v>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F288" t="n">
         <v>14</v>
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F289" t="n">
         <v>15</v>
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F290" t="n">
         <v>16</v>
@@ -7994,7 +7994,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F291" t="n">
         <v>17</v>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F292" t="n">
         <v>18</v>
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F293" t="n">
         <v>19</v>
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F294" t="n">
         <v>20</v>
@@ -8098,7 +8098,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F295" t="n">
         <v>21</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F296" t="n">
         <v>22</v>
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F299" t="n">
         <v>9</v>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F300" t="n">
         <v>10</v>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F301" t="n">
         <v>11</v>
@@ -8280,7 +8280,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F302" t="n">
         <v>12</v>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F303" t="n">
         <v>13</v>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F304" t="n">
         <v>14</v>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F305" t="n">
         <v>15</v>
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F306" t="n">
         <v>16</v>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F307" t="n">
         <v>17</v>
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F308" t="n">
         <v>18</v>

--- a/service/dayforecast.xlsx
+++ b/service/dayforecast.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>144.3</v>
+        <v>157.3</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>197.6</v>
+        <v>174.2</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>215.8</v>
+        <v>175.5</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>180.7</v>
+        <v>153.4</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>136.5</v>
+        <v>128.7</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>143</v>
+        <v>118.3</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>145.6</v>
+        <v>139.1</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>150.8</v>
+        <v>133.9</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>152.1</v>
+        <v>128.7</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>148.2</v>
+        <v>126.1</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102.7</v>
+        <v>76.7</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>49.4</v>
+        <v>32.5</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>158.6</v>
+        <v>130</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>206.7</v>
+        <v>140.4</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>206.7</v>
+        <v>158.6</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>191.1</v>
+        <v>240.5</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>126.1</v>
+        <v>136.5</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>175.5</v>
+        <v>133.9</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>144.3</v>
+        <v>241.8</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>187.2</v>
+        <v>176.8</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>163.8</v>
+        <v>128.7</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>195</v>
+        <v>165.1</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>153.4</v>
+        <v>157.3</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>117</v>
+        <v>115.7</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F35" t="n">
         <v>9</v>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F37" t="n">
         <v>11</v>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F38" t="n">
         <v>12</v>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F39" t="n">
         <v>13</v>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F40" t="n">
         <v>14</v>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F42" t="n">
         <v>16</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F43" t="n">
         <v>17</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F45" t="n">
         <v>19</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F46" t="n">
         <v>20</v>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F47" t="n">
         <v>21</v>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F48" t="n">
         <v>22</v>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>23</v>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F52" t="n">
         <v>10</v>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F54" t="n">
         <v>12</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F55" t="n">
         <v>13</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F56" t="n">
         <v>14</v>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F57" t="n">
         <v>15</v>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F58" t="n">
         <v>16</v>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F59" t="n">
         <v>17</v>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F60" t="n">
         <v>18</v>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F61" t="n">
         <v>19</v>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F62" t="n">
         <v>20</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F64" t="n">
         <v>22</v>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>23</v>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F69" t="n">
         <v>11</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="F70" t="n">
         <v>12</v>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F71" t="n">
         <v>13</v>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="F72" t="n">
         <v>14</v>
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F74" t="n">
         <v>16</v>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="F75" t="n">
         <v>17</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F76" t="n">
         <v>18</v>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F77" t="n">
         <v>19</v>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F80" t="n">
         <v>22</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F82" t="n">
         <v>8</v>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F84" t="n">
         <v>10</v>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F85" t="n">
         <v>11</v>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F88" t="n">
         <v>14</v>
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F89" t="n">
         <v>15</v>
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F91" t="n">
         <v>17</v>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F92" t="n">
         <v>18</v>
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F93" t="n">
         <v>19</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F94" t="n">
         <v>20</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F95" t="n">
         <v>21</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
         <v>22</v>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F97" t="n">
         <v>23</v>
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F98" t="n">
         <v>8</v>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F100" t="n">
         <v>10</v>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F101" t="n">
         <v>11</v>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F102" t="n">
         <v>12</v>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F103" t="n">
         <v>13</v>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F104" t="n">
         <v>14</v>
@@ -3158,7 +3158,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F105" t="n">
         <v>15</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F106" t="n">
         <v>16</v>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F107" t="n">
         <v>17</v>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F108" t="n">
         <v>18</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F109" t="n">
         <v>19</v>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F110" t="n">
         <v>20</v>
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F111" t="n">
         <v>21</v>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
         <v>22</v>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
         <v>23</v>
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
         <v>2</v>
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
         <v>3</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F119" t="n">
         <v>5</v>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F121" t="n">
         <v>7</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>10</v>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
         <v>13</v>
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
         <v>17</v>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>18</v>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>19</v>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
         <v>10</v>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F141" t="n">
         <v>11</v>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
         <v>12</v>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F145" t="n">
         <v>15</v>
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
         <v>16</v>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
         <v>18</v>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F155" t="n">
         <v>9</v>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F157" t="n">
         <v>11</v>
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F158" t="n">
         <v>12</v>
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F159" t="n">
         <v>13</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F160" t="n">
         <v>14</v>
@@ -4614,7 +4614,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F161" t="n">
         <v>15</v>
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F162" t="n">
         <v>16</v>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F164" t="n">
         <v>18</v>
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F165" t="n">
         <v>19</v>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F166" t="n">
         <v>20</v>
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F170" t="n">
         <v>8</v>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F172" t="n">
         <v>10</v>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F175" t="n">
         <v>13</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F176" t="n">
         <v>14</v>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F177" t="n">
         <v>15</v>
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F179" t="n">
         <v>17</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F180" t="n">
         <v>18</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F181" t="n">
         <v>19</v>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F182" t="n">
         <v>20</v>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F186" t="n">
         <v>8</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F187" t="n">
         <v>9</v>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F188" t="n">
         <v>10</v>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F189" t="n">
         <v>11</v>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F190" t="n">
         <v>12</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F191" t="n">
         <v>13</v>
@@ -5420,7 +5420,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F192" t="n">
         <v>14</v>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F193" t="n">
         <v>15</v>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F194" t="n">
         <v>16</v>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F195" t="n">
         <v>17</v>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F196" t="n">
         <v>18</v>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F197" t="n">
         <v>19</v>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F198" t="n">
         <v>20</v>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F199" t="n">
         <v>21</v>
@@ -5628,7 +5628,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
         <v>22</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F202" t="n">
         <v>8</v>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F203" t="n">
         <v>9</v>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F204" t="n">
         <v>10</v>
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F205" t="n">
         <v>11</v>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F208" t="n">
         <v>14</v>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F209" t="n">
         <v>15</v>
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F210" t="n">
         <v>16</v>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F211" t="n">
         <v>17</v>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F212" t="n">
         <v>18</v>
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F213" t="n">
         <v>19</v>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F214" t="n">
         <v>20</v>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F218" t="n">
         <v>8</v>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F219" t="n">
         <v>9</v>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F220" t="n">
         <v>10</v>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F221" t="n">
         <v>11</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F222" t="n">
         <v>12</v>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F223" t="n">
         <v>13</v>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F224" t="n">
         <v>14</v>
@@ -6278,7 +6278,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F225" t="n">
         <v>15</v>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F226" t="n">
         <v>16</v>
@@ -6330,7 +6330,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F227" t="n">
         <v>17</v>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F228" t="n">
         <v>18</v>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F229" t="n">
         <v>19</v>
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F236" t="n">
         <v>10</v>
@@ -6590,7 +6590,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F237" t="n">
         <v>11</v>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F238" t="n">
         <v>12</v>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F239" t="n">
         <v>13</v>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F240" t="n">
         <v>14</v>
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F241" t="n">
         <v>15</v>
@@ -6720,7 +6720,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F242" t="n">
         <v>16</v>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F243" t="n">
         <v>17</v>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F244" t="n">
         <v>18</v>
@@ -6798,7 +6798,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F245" t="n">
         <v>19</v>
@@ -6954,7 +6954,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F251" t="n">
         <v>9</v>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F252" t="n">
         <v>10</v>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F253" t="n">
         <v>11</v>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F254" t="n">
         <v>12</v>
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F255" t="n">
         <v>13</v>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F256" t="n">
         <v>14</v>
@@ -7110,7 +7110,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F257" t="n">
         <v>15</v>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F258" t="n">
         <v>16</v>
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F259" t="n">
         <v>17</v>
@@ -7188,7 +7188,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F260" t="n">
         <v>18</v>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F261" t="n">
         <v>19</v>
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F262" t="n">
         <v>20</v>
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F272" t="n">
         <v>14</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F273" t="n">
         <v>15</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F274" t="n">
         <v>16</v>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F275" t="n">
         <v>17</v>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F276" t="n">
         <v>18</v>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F277" t="n">
         <v>19</v>
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F282" t="n">
         <v>8</v>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F283" t="n">
         <v>9</v>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F284" t="n">
         <v>10</v>
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F285" t="n">
         <v>11</v>
@@ -7864,7 +7864,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F286" t="n">
         <v>12</v>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F288" t="n">
         <v>14</v>
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F289" t="n">
         <v>15</v>
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F290" t="n">
         <v>16</v>
@@ -7994,7 +7994,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F291" t="n">
         <v>17</v>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F292" t="n">
         <v>18</v>
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F293" t="n">
         <v>19</v>
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F294" t="n">
         <v>20</v>
@@ -8098,7 +8098,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F295" t="n">
         <v>21</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F296" t="n">
         <v>22</v>
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="F299" t="n">
         <v>9</v>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F300" t="n">
         <v>10</v>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F301" t="n">
         <v>11</v>
@@ -8280,7 +8280,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F302" t="n">
         <v>12</v>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F303" t="n">
         <v>13</v>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F304" t="n">
         <v>14</v>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F305" t="n">
         <v>15</v>
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F306" t="n">
         <v>16</v>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F307" t="n">
         <v>17</v>
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F308" t="n">
         <v>18</v>

--- a/service/dayforecast.xlsx
+++ b/service/dayforecast.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>25/03/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>157.3</v>
+        <v>96</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>174.2</v>
+        <v>134</v>
       </c>
       <c r="F4" t="n">
         <v>10</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>175.5</v>
+        <v>154</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>153.4</v>
+        <v>170</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>128.7</v>
+        <v>124</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>118.3</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>139.1</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>133.9</v>
+        <v>88</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>128.7</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>126.1</v>
+        <v>90</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>76.7</v>
+        <v>48</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32.5</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>140.4</v>
+        <v>136</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>158.6</v>
+        <v>158</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>240.5</v>
+        <v>166</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>136.5</v>
+        <v>106</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>133.9</v>
+        <v>164</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>241.8</v>
+        <v>106</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>176.8</v>
+        <v>104</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>128.7</v>
+        <v>98</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>165.1</v>
+        <v>96</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>157.3</v>
+        <v>62</v>
       </c>
       <c r="F29" t="n">
         <v>19</v>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>115.7</v>
+        <v>38</v>
       </c>
       <c r="F30" t="n">
         <v>20</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F34" t="n">
         <v>8</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F35" t="n">
         <v>9</v>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F37" t="n">
         <v>11</v>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F38" t="n">
         <v>12</v>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F39" t="n">
         <v>13</v>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F40" t="n">
         <v>14</v>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F42" t="n">
         <v>16</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F43" t="n">
         <v>17</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="F44" t="n">
         <v>18</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F45" t="n">
         <v>19</v>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F46" t="n">
         <v>20</v>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F47" t="n">
         <v>21</v>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
         <v>22</v>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
         <v>23</v>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F52" t="n">
         <v>10</v>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F54" t="n">
         <v>12</v>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F55" t="n">
         <v>13</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F56" t="n">
         <v>14</v>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F57" t="n">
         <v>15</v>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F58" t="n">
         <v>16</v>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F59" t="n">
         <v>17</v>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F60" t="n">
         <v>18</v>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F61" t="n">
         <v>19</v>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F62" t="n">
         <v>20</v>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F63" t="n">
         <v>21</v>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
         <v>22</v>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>23</v>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F66" t="n">
         <v>8</v>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F68" t="n">
         <v>10</v>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F69" t="n">
         <v>11</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F70" t="n">
         <v>12</v>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F71" t="n">
         <v>13</v>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="F72" t="n">
         <v>14</v>
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="F74" t="n">
         <v>16</v>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F75" t="n">
         <v>17</v>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="F76" t="n">
         <v>18</v>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F77" t="n">
         <v>19</v>
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F78" t="n">
         <v>20</v>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F79" t="n">
         <v>21</v>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
         <v>22</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F82" t="n">
         <v>8</v>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F84" t="n">
         <v>10</v>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F85" t="n">
         <v>11</v>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F86" t="n">
         <v>12</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F87" t="n">
         <v>13</v>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F88" t="n">
         <v>14</v>
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F89" t="n">
         <v>15</v>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F90" t="n">
         <v>16</v>
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F91" t="n">
         <v>17</v>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F92" t="n">
         <v>18</v>
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F93" t="n">
         <v>19</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F94" t="n">
         <v>20</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
         <v>21</v>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F96" t="n">
         <v>22</v>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F97" t="n">
         <v>23</v>
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F98" t="n">
         <v>8</v>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F100" t="n">
         <v>10</v>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F101" t="n">
         <v>11</v>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F102" t="n">
         <v>12</v>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F103" t="n">
         <v>13</v>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F104" t="n">
         <v>14</v>
@@ -3158,7 +3158,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F105" t="n">
         <v>15</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F106" t="n">
         <v>16</v>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F107" t="n">
         <v>17</v>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F108" t="n">
         <v>18</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F109" t="n">
         <v>19</v>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F110" t="n">
         <v>20</v>
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F111" t="n">
         <v>21</v>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>23</v>
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
         <v>2</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>4</v>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
         <v>5</v>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F121" t="n">
         <v>7</v>
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
         <v>9</v>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
         <v>10</v>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
         <v>11</v>
@@ -3704,7 +3704,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>12</v>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>13</v>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>17</v>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
         <v>10</v>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
         <v>12</v>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
         <v>13</v>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>15</v>
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>16</v>
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>17</v>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
         <v>18</v>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>19</v>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F155" t="n">
         <v>9</v>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F156" t="n">
         <v>10</v>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F157" t="n">
         <v>11</v>
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F158" t="n">
         <v>12</v>
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F159" t="n">
         <v>13</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F160" t="n">
         <v>14</v>
@@ -4614,7 +4614,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F161" t="n">
         <v>15</v>
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F162" t="n">
         <v>16</v>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F163" t="n">
         <v>17</v>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F164" t="n">
         <v>18</v>
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F165" t="n">
         <v>19</v>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
         <v>20</v>
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F170" t="n">
         <v>8</v>
@@ -4874,7 +4874,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F171" t="n">
         <v>9</v>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F172" t="n">
         <v>10</v>
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F173" t="n">
         <v>11</v>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F174" t="n">
         <v>12</v>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F176" t="n">
         <v>14</v>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
         <v>15</v>
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F178" t="n">
         <v>16</v>
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F179" t="n">
         <v>17</v>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F180" t="n">
         <v>18</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
         <v>19</v>
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F182" t="n">
         <v>20</v>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F186" t="n">
         <v>8</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F187" t="n">
         <v>9</v>
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F188" t="n">
         <v>10</v>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F189" t="n">
         <v>11</v>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F190" t="n">
         <v>12</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F191" t="n">
         <v>13</v>
@@ -5420,7 +5420,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F192" t="n">
         <v>14</v>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F193" t="n">
         <v>15</v>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F194" t="n">
         <v>16</v>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F195" t="n">
         <v>17</v>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F196" t="n">
         <v>18</v>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F197" t="n">
         <v>19</v>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F198" t="n">
         <v>20</v>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
         <v>21</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F202" t="n">
         <v>8</v>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F203" t="n">
         <v>9</v>
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F204" t="n">
         <v>10</v>
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F205" t="n">
         <v>11</v>
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F206" t="n">
         <v>12</v>
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F207" t="n">
         <v>13</v>
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F208" t="n">
         <v>14</v>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F209" t="n">
         <v>15</v>
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F210" t="n">
         <v>16</v>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F211" t="n">
         <v>17</v>
@@ -5940,7 +5940,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F212" t="n">
         <v>18</v>
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F213" t="n">
         <v>19</v>
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
         <v>20</v>
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="n">
         <v>21</v>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F218" t="n">
         <v>8</v>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="F219" t="n">
         <v>9</v>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="F220" t="n">
         <v>10</v>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="F221" t="n">
         <v>11</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F222" t="n">
         <v>12</v>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F223" t="n">
         <v>13</v>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F224" t="n">
         <v>14</v>
@@ -6278,7 +6278,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="F225" t="n">
         <v>15</v>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F226" t="n">
         <v>16</v>
@@ -6330,7 +6330,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="F227" t="n">
         <v>17</v>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F228" t="n">
         <v>18</v>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F229" t="n">
         <v>19</v>
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F234" t="n">
         <v>8</v>
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F235" t="n">
         <v>9</v>
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F236" t="n">
         <v>10</v>
@@ -6590,7 +6590,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F237" t="n">
         <v>11</v>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F238" t="n">
         <v>12</v>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F239" t="n">
         <v>13</v>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F240" t="n">
         <v>14</v>
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F241" t="n">
         <v>15</v>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F243" t="n">
         <v>17</v>
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F244" t="n">
         <v>18</v>
@@ -6798,7 +6798,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F245" t="n">
         <v>19</v>
@@ -6954,7 +6954,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F251" t="n">
         <v>9</v>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F252" t="n">
         <v>10</v>
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F253" t="n">
         <v>11</v>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F254" t="n">
         <v>12</v>
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F255" t="n">
         <v>13</v>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F256" t="n">
         <v>14</v>
@@ -7110,7 +7110,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F257" t="n">
         <v>15</v>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F258" t="n">
         <v>16</v>
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F259" t="n">
         <v>17</v>
@@ -7188,7 +7188,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F260" t="n">
         <v>18</v>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F261" t="n">
         <v>19</v>
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F262" t="n">
         <v>20</v>
@@ -7370,7 +7370,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F267" t="n">
         <v>9</v>
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F268" t="n">
         <v>10</v>
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F269" t="n">
         <v>11</v>
@@ -7448,7 +7448,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F270" t="n">
         <v>12</v>
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F272" t="n">
         <v>14</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F273" t="n">
         <v>15</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F274" t="n">
         <v>16</v>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F275" t="n">
         <v>17</v>
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F278" t="n">
         <v>20</v>
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F282" t="n">
         <v>8</v>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F283" t="n">
         <v>9</v>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F284" t="n">
         <v>10</v>
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F285" t="n">
         <v>11</v>
@@ -7864,7 +7864,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F286" t="n">
         <v>12</v>
@@ -7890,7 +7890,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F287" t="n">
         <v>13</v>
@@ -7916,7 +7916,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F288" t="n">
         <v>14</v>
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F289" t="n">
         <v>15</v>
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F290" t="n">
         <v>16</v>
@@ -7994,7 +7994,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F291" t="n">
         <v>17</v>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F292" t="n">
         <v>18</v>
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F293" t="n">
         <v>19</v>
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F294" t="n">
         <v>20</v>
@@ -8098,7 +8098,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F295" t="n">
         <v>21</v>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F296" t="n">
         <v>22</v>
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F299" t="n">
         <v>9</v>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F300" t="n">
         <v>10</v>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F301" t="n">
         <v>11</v>
@@ -8280,7 +8280,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F302" t="n">
         <v>12</v>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F303" t="n">
         <v>13</v>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F304" t="n">
         <v>14</v>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F305" t="n">
         <v>15</v>
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F306" t="n">
         <v>16</v>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F307" t="n">
         <v>17</v>

--- a/service/dayforecast.xlsx
+++ b/service/dayforecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F313"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>25/03/2023</t>
+          <t>07/04/2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -613,7 +613,7 @@
         <v>124</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="F27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1156,10 +1156,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1364,10 +1364,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F41" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F42" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F44" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -1731,7 +1731,7 @@
         <v>25</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -1861,7 +1861,7 @@
         <v>36</v>
       </c>
       <c r="F55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F58" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F60" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F61" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -2170,10 +2170,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="F67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -2196,10 +2196,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -2274,10 +2274,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F71" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -2300,10 +2300,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="F72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -2326,10 +2326,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F73" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="F74" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -2378,10 +2378,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="F75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F76" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F77" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
@@ -2482,10 +2482,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
@@ -2560,10 +2560,10 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F82" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -2612,10 +2612,10 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
@@ -2664,10 +2664,10 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
@@ -2690,10 +2690,10 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F87" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
@@ -2716,10 +2716,10 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -2742,10 +2742,10 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F90" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -2794,10 +2794,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F91" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -2820,10 +2820,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F92" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
@@ -2846,10 +2846,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F93" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
@@ -2872,10 +2872,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
@@ -2898,10 +2898,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
@@ -2976,10 +2976,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
@@ -3002,10 +3002,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F102" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F103" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -3132,10 +3132,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F104" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
@@ -3158,10 +3158,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F105" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F106" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
@@ -3210,10 +3210,10 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F107" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -3236,10 +3236,10 @@
         </is>
       </c>
       <c r="E108" t="n">
+        <v>32</v>
+      </c>
+      <c r="F108" t="n">
         <v>19</v>
-      </c>
-      <c r="F108" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F109" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
@@ -3288,10 +3288,10 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
@@ -3314,10 +3314,10 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F111" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
@@ -3366,10 +3366,10 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3388,14 +3388,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>00.00-01.00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3414,14 +3414,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>01.00-02.00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>02.00-03.00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E116" t="n">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3466,14 +3466,14 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>03.00-04.00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -3482,7 +3482,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3492,14 +3492,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>04.00-05.00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3518,14 +3518,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>05.00-06.00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3544,14 +3544,14 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>06.00-07.00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
         <v>15</v>
-      </c>
-      <c r="F120" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="121">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3570,14 +3570,14 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>07.00-08.00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">
@@ -3596,14 +3596,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
@@ -3622,14 +3622,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -3648,14 +3648,14 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E124" t="n">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
@@ -3674,14 +3674,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126">
@@ -3700,14 +3700,14 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127">
@@ -3726,14 +3726,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128">
@@ -3752,14 +3752,14 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129">
@@ -3778,14 +3778,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130">
@@ -3794,24 +3794,24 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
@@ -3820,24 +3820,24 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -3846,24 +3846,24 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F132" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F133" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
@@ -3898,24 +3898,24 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
@@ -3924,24 +3924,24 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
@@ -3950,24 +3950,24 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F136" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
@@ -3976,24 +3976,24 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-INFOLINE-PRE-RES</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PRE</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138">
@@ -4012,14 +4012,14 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F138" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139">
@@ -4038,14 +4038,14 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
@@ -4064,14 +4064,14 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E140" t="n">
         <v>2</v>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141">
@@ -4090,14 +4090,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
@@ -4116,14 +4116,14 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143">
@@ -4142,14 +4142,14 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144">
@@ -4168,14 +4168,14 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
@@ -4194,14 +4194,14 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4220,14 +4220,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4246,14 +4246,14 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F147" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4272,14 +4272,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F148" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4298,14 +4298,14 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F149" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4324,14 +4324,14 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4350,14 +4350,14 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F151" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4376,14 +4376,14 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F152" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>COV-INFOLINE-PRE-RES</t>
+          <t>COV-INFOPROVISIONING-RES</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4402,14 +4402,14 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F153" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
@@ -4428,14 +4428,14 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F154" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155">
@@ -4454,14 +4454,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F155" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
@@ -4480,14 +4480,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157">
@@ -4506,14 +4506,14 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F157" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
@@ -4532,14 +4532,14 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F158" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="159">
@@ -4558,14 +4558,14 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160">
@@ -4584,14 +4584,14 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161">
@@ -4610,14 +4610,14 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4636,14 +4636,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4662,14 +4662,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F163" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4688,14 +4688,14 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F164" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4714,14 +4714,14 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F165" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4740,14 +4740,14 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F166" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4766,14 +4766,14 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F167" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168">
@@ -4782,7 +4782,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4792,14 +4792,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F168" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-RES</t>
+          <t>COV-INFOPROVISIONING-CMN-RES</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4818,14 +4818,14 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F169" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170">
@@ -4844,14 +4844,14 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F170" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171">
@@ -4870,14 +4870,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F171" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -4896,14 +4896,14 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173">
@@ -4922,14 +4922,14 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E173" t="n">
         <v>3</v>
       </c>
       <c r="F173" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174">
@@ -4948,14 +4948,14 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F174" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175">
@@ -4974,14 +4974,14 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176">
@@ -5000,14 +5000,14 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177">
@@ -5026,14 +5026,14 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5052,14 +5052,14 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F178" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5078,14 +5078,14 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F179" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5104,14 +5104,14 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="F180" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5130,14 +5130,14 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F181" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5156,14 +5156,14 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="F182" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5182,14 +5182,14 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F183" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5208,14 +5208,14 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F184" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>COV-INFOPROVISIONING-CMN-RES</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5234,14 +5234,14 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F185" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186">
@@ -5260,14 +5260,14 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F186" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-36</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5286,14 +5286,14 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F187" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-37</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5312,14 +5312,14 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F188" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-38</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5338,14 +5338,14 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F189" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-39</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5364,14 +5364,14 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F190" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-40</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5390,14 +5390,14 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F191" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-41</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5416,14 +5416,14 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E192" t="n">
+        <v>1</v>
+      </c>
+      <c r="F192" t="n">
         <v>23</v>
-      </c>
-      <c r="F192" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="193">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-42</t>
+          <t>COV-MIGRAZIONE-35</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5442,14 +5442,14 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-43</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5468,14 +5468,14 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F194" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-44</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5494,14 +5494,14 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F195" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-45</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5520,14 +5520,14 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F196" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-46</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5546,14 +5546,14 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F197" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-47</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5572,14 +5572,14 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F198" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-48</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5598,14 +5598,14 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F199" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-49</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5624,14 +5624,14 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F200" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-50</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5650,14 +5650,14 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F201" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202">
@@ -5676,14 +5676,14 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F202" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-38</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5702,14 +5702,14 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F203" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-39</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5728,14 +5728,14 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F204" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-40</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5754,14 +5754,14 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F205" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-41</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5780,14 +5780,14 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E206" t="n">
         <v>4</v>
       </c>
       <c r="F206" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-42</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5806,14 +5806,14 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-43</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5832,14 +5832,14 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-44</t>
+          <t>COV-MIGRAZIONE-37</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5858,14 +5858,14 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-45</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5884,14 +5884,14 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E210" t="n">
+        <v>57</v>
+      </c>
+      <c r="F210" t="n">
         <v>9</v>
-      </c>
-      <c r="F210" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="211">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-46</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5910,14 +5910,14 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="F211" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-47</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5936,14 +5936,14 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="F212" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-48</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5962,14 +5962,14 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="F213" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-49</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5988,14 +5988,14 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="F214" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-50</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -6014,14 +6014,14 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F215" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-51</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6040,14 +6040,14 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F216" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>COV-MIGRAZIONE-52</t>
+          <t>COV-MOBILE MNP</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6066,14 +6066,14 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F217" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218">
@@ -6092,14 +6092,14 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="F218" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219">
@@ -6118,14 +6118,14 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F219" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
@@ -6144,14 +6144,14 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F220" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F221" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222">
@@ -6196,14 +6196,14 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223">
@@ -6222,14 +6222,14 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224">
@@ -6248,14 +6248,14 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225">
@@ -6274,14 +6274,14 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6300,14 +6300,14 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6326,14 +6326,14 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F227" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6352,14 +6352,14 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F228" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6378,14 +6378,14 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F229" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6404,14 +6404,14 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F230" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6430,14 +6430,14 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F231" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6456,14 +6456,14 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F232" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>COV-MOBILE MNP</t>
+          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6482,14 +6482,14 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F233" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234">
@@ -6508,14 +6508,14 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F234" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235">
@@ -6534,14 +6534,14 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F235" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236">
@@ -6560,14 +6560,14 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F236" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237">
@@ -6586,14 +6586,14 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F237" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238">
@@ -6612,14 +6612,14 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="239">
@@ -6638,14 +6638,14 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240">
@@ -6664,14 +6664,14 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241">
@@ -6690,14 +6690,14 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6716,14 +6716,14 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -6742,14 +6742,14 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F243" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -6768,14 +6768,14 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F244" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -6794,14 +6794,14 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F245" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -6820,14 +6820,14 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F246" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -6846,14 +6846,14 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -6872,14 +6872,14 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F248" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>COV-INFOPROV-MOBILE-CMN-RES</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -6898,14 +6898,14 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F249" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250">
@@ -6924,14 +6924,14 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F250" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251">
@@ -6950,14 +6950,14 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F251" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252">
@@ -6976,14 +6976,14 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E252" t="n">
+        <v>18</v>
+      </c>
+      <c r="F252" t="n">
         <v>19</v>
-      </c>
-      <c r="F252" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="253">
@@ -7002,14 +7002,14 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F253" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254">
@@ -7028,14 +7028,14 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F254" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="255">
@@ -7054,14 +7054,14 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256">
@@ -7080,14 +7080,14 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257">
@@ -7106,14 +7106,14 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7132,14 +7132,14 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -7158,14 +7158,14 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F259" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7184,14 +7184,14 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -7210,14 +7210,14 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F261" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -7236,14 +7236,14 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F262" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -7262,14 +7262,14 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F263" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264">
@@ -7278,7 +7278,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -7288,14 +7288,14 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F264" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -7314,14 +7314,14 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F265" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266">
@@ -7340,14 +7340,14 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F266" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267">
@@ -7366,14 +7366,14 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E267" t="n">
         <v>2</v>
       </c>
       <c r="F267" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268">
@@ -7392,14 +7392,14 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F268" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="269">
@@ -7418,14 +7418,14 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270">
@@ -7444,14 +7444,14 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="271">
@@ -7470,14 +7470,14 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F271" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="272">
@@ -7496,14 +7496,14 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="273">
@@ -7522,14 +7522,14 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="274">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -7548,14 +7548,14 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F274" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -7574,14 +7574,14 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F275" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -7600,14 +7600,14 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F276" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -7626,14 +7626,14 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F277" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -7652,14 +7652,14 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F278" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -7678,14 +7678,14 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F279" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -7704,14 +7704,14 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F280" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -7730,14 +7730,14 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F281" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282">
@@ -7756,14 +7756,14 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F282" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283">
@@ -7782,14 +7782,14 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F283" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284">
@@ -7808,14 +7808,14 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F284" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285">
@@ -7834,14 +7834,14 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F285" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286">
@@ -7860,14 +7860,14 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F286" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="287">
@@ -7886,14 +7886,14 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F287" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="288">
@@ -7912,14 +7912,14 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F288" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289">
@@ -7938,14 +7938,14 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F289" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TRASLOCO-RES</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -7964,14 +7964,14 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>16:00-17:00</t>
+          <t>08:00-09:00</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TRASLOCO-RES</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -7990,14 +7990,14 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F291" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TRASLOCO-RES</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -8016,14 +8016,14 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>18:00-19:00</t>
+          <t>10:00-11:00</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F292" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TRASLOCO-RES</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -8042,14 +8042,14 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>11:00-12:00</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F293" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TRASLOCO-RES</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -8068,14 +8068,14 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>20:00-21:00</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F294" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TRASLOCO-RES</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -8094,14 +8094,14 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>21:00-22:00</t>
+          <t>13:00-14:00</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F295" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TRASLOCO-RES</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -8120,14 +8120,14 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>22:00-23:00</t>
+          <t>14:00-15:00</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F296" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>COV-WELCOME-RES</t>
+          <t>COV-TRASLOCO-RES</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -8146,14 +8146,14 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>23:00-24:00</t>
+          <t>15:00-16:00</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F297" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298">
@@ -8172,14 +8172,14 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>08:00-09:00</t>
+          <t>16:00-17:00</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F298" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299">
@@ -8198,14 +8198,14 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>09:00-10:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F299" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300">
@@ -8224,14 +8224,14 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>10:00-11:00</t>
+          <t>18:00-19:00</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="301">
@@ -8250,14 +8250,14 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>11:00-12:00</t>
+          <t>19:00-20:00</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F301" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302">
@@ -8276,14 +8276,14 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>20:00-21:00</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303">
@@ -8302,14 +8302,14 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>13:00-14:00</t>
+          <t>21:00-22:00</t>
         </is>
       </c>
       <c r="E303" t="n">
         <v>0</v>
       </c>
       <c r="F303" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="304">
@@ -8328,14 +8328,14 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>14:00-15:00</t>
+          <t>22:00-23:00</t>
         </is>
       </c>
       <c r="E304" t="n">
         <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="305">
@@ -8354,222 +8354,14 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>15:00-16:00</t>
+          <t>23:00-24:00</t>
         </is>
       </c>
       <c r="E305" t="n">
         <v>0</v>
       </c>
       <c r="F305" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>COV-TRASLOCO-RES</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>16:00-17:00</t>
-        </is>
-      </c>
-      <c r="E306" t="n">
-        <v>0</v>
-      </c>
-      <c r="F306" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>COV-TRASLOCO-RES</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="E307" t="n">
-        <v>0</v>
-      </c>
-      <c r="F307" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>COV-TRASLOCO-RES</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>18:00-19:00</t>
-        </is>
-      </c>
-      <c r="E308" t="n">
-        <v>0</v>
-      </c>
-      <c r="F308" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>COV-TRASLOCO-RES</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>19:00-20:00</t>
-        </is>
-      </c>
-      <c r="E309" t="n">
-        <v>0</v>
-      </c>
-      <c r="F309" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>COV-TRASLOCO-RES</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>20:00-21:00</t>
-        </is>
-      </c>
-      <c r="E310" t="n">
-        <v>0</v>
-      </c>
-      <c r="F310" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>COV-TRASLOCO-RES</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>21:00-22:00</t>
-        </is>
-      </c>
-      <c r="E311" t="n">
-        <v>0</v>
-      </c>
-      <c r="F311" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>COV-TRASLOCO-RES</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>22:00-23:00</t>
-        </is>
-      </c>
-      <c r="E312" t="n">
-        <v>0</v>
-      </c>
-      <c r="F312" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>COV-TRASLOCO-RES</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>23:00-24:00</t>
-        </is>
-      </c>
-      <c r="E313" t="n">
-        <v>0</v>
-      </c>
-      <c r="F313" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
